--- a/data/trans_dic/P79$ninguna_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P79$ninguna_2023-Edad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.8571996491898581</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.813425136492583</v>
+        <v>0.8134251364925831</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.8365573363586088</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7941742563436797</v>
+        <v>0.7970829934554783</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7502550656467768</v>
+        <v>0.7488877617931025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7890006655511058</v>
+        <v>0.795381746956459</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.908082498889182</v>
+        <v>0.9065844750171813</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8632339296782758</v>
+        <v>0.8638362887979496</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8746770364779115</v>
+        <v>0.8745460185430758</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.8561952618583621</v>
+        <v>0.8561952618583623</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8438471560782109</v>
+        <v>0.8438471560782108</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8499234435137261</v>
+        <v>0.8499234435137262</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8096124113964742</v>
+        <v>0.8092182480447493</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8102330233993333</v>
+        <v>0.8067316313058384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8228181287394805</v>
+        <v>0.8219271958842914</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8922859967897464</v>
+        <v>0.8941229733748378</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8762705338089086</v>
+        <v>0.875655728194135</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8769045438134078</v>
+        <v>0.873772228576966</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8462731512196465</v>
+        <v>0.8462731512196466</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8666940243769149</v>
+        <v>0.8666940243769151</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.8565286673943899</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8111862836151869</v>
+        <v>0.8150565441714244</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8390286131832658</v>
+        <v>0.8440563208790843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8351204005632656</v>
+        <v>0.8352440321226648</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.875218636146521</v>
+        <v>0.8763540260228639</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8902598679404031</v>
+        <v>0.8899952995698921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8749941453817146</v>
+        <v>0.8753397757976256</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.8546948952794909</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8641920260905802</v>
+        <v>0.8641920260905803</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8595610582972697</v>
+        <v>0.8595610582972696</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8267983777066196</v>
+        <v>0.8259008787748914</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8434761509554962</v>
+        <v>0.8420716509496995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.842308792392126</v>
+        <v>0.8423824024977165</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.881326602664055</v>
+        <v>0.8794709517675057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8839503097251979</v>
+        <v>0.8834062220665569</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8782916927519255</v>
+        <v>0.8760197741387666</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8499593368356347</v>
+        <v>0.8499593368356348</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8416132707560522</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.8458011165864785</v>
+        <v>0.8458011165864784</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8204748343509084</v>
+        <v>0.8230976076928919</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8176640560764358</v>
+        <v>0.8170033282234522</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8245891253394338</v>
+        <v>0.82522807469488</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8756570198585232</v>
+        <v>0.8775450062604879</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8660566726978146</v>
+        <v>0.8644345419396747</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8631612899650082</v>
+        <v>0.8626364662400873</v>
       </c>
     </row>
     <row r="19">
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.8811213614564268</v>
+        <v>0.8811213614564267</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.8746262637268418</v>
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.8532021898681361</v>
+        <v>0.8548306439680783</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.8503111221369622</v>
+        <v>0.8515332067327661</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.8599693049980995</v>
+        <v>0.8570672812918648</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.908087259336489</v>
+        <v>0.907789123277832</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8983376155997851</v>
+        <v>0.8974568778361104</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8964980908055874</v>
+        <v>0.8919079494581363</v>
       </c>
     </row>
     <row r="22">
@@ -897,7 +897,7 @@
         <v>0.8928115941372927</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.873698069169364</v>
+        <v>0.8736980691693639</v>
       </c>
       <c r="E22" s="5" t="n">
         <v>0.8814854262665824</v>
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8584041674443939</v>
+        <v>0.8558263817548024</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8431340423505611</v>
+        <v>0.8492692643881492</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.8614602242702595</v>
+        <v>0.8616126434381252</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9191471715297116</v>
+        <v>0.9192081850059554</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8948204407673541</v>
+        <v>0.8974779796039991</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.8993319965624175</v>
+        <v>0.8987484906145975</v>
       </c>
     </row>
     <row r="25">
@@ -949,13 +949,13 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.8593354673951267</v>
+        <v>0.8593354673951266</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.8558409473021453</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.8575438446937425</v>
+        <v>0.8575438446937423</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.8451197512888374</v>
+        <v>0.8462770484932072</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8449420801510801</v>
+        <v>0.844441300176948</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8487709552366904</v>
+        <v>0.849173706738533</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8720197373268259</v>
+        <v>0.872492599537824</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8672288956892311</v>
+        <v>0.8658769951481952</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.8653903025864709</v>
+        <v>0.8653268516550829</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>300219</v>
+        <v>301319</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>253089</v>
+        <v>252628</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>564423</v>
+        <v>568987</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>343280</v>
+        <v>342713</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>291201</v>
+        <v>291404</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>625712</v>
+        <v>625619</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>379919</v>
+        <v>379734</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>392445</v>
+        <v>390749</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>784657</v>
+        <v>783807</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>418714</v>
+        <v>419576</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>424431</v>
+        <v>424133</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>836235</v>
+        <v>833248</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>486461</v>
+        <v>488782</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>507621</v>
+        <v>510663</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1006070</v>
+        <v>1006219</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>524861</v>
+        <v>525542</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>538616</v>
+        <v>538456</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1054106</v>
+        <v>1054523</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>564240</v>
+        <v>563628</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>604856</v>
+        <v>603849</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1178844</v>
+        <v>1178947</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>601453</v>
+        <v>600186</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>633880</v>
+        <v>633490</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1229203</v>
+        <v>1226024</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>484677</v>
+        <v>486226</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>479599</v>
+        <v>479212</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>970768</v>
+        <v>971520</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>517274</v>
+        <v>518390</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>507984</v>
+        <v>507032</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1016178</v>
+        <v>1015560</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>338345</v>
+        <v>338991</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>362559</v>
+        <v>363080</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>707706</v>
+        <v>705318</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>360110</v>
+        <v>359992</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>383037</v>
+        <v>382661</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>737767</v>
+        <v>733989</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>261053</v>
+        <v>260269</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>372929</v>
+        <v>375643</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>643018</v>
+        <v>643132</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>279526</v>
+        <v>279544</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>395791</v>
+        <v>396966</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>671287</v>
+        <v>670851</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2891002</v>
+        <v>2894961</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3040991</v>
+        <v>3039189</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>5958263</v>
+        <v>5961091</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>2983022</v>
+        <v>2984639</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3121203</v>
+        <v>3116337</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6074929</v>
+        <v>6074484</v>
       </c>
     </row>
     <row r="36">
